--- a/storylines.xlsx
+++ b/storylines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\task mangament dashboard\test_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7085EBE-A5DD-4B95-BD69-3613004E43F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8CA652-BFE2-4E66-AE8D-EEF00B5DDCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,16 +399,16 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -427,7 +427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -443,7 +443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -451,7 +451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -459,7 +459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -467,7 +467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -475,7 +475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -483,7 +483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -491,7 +491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>

--- a/storylines.xlsx
+++ b/storylines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\task mangament dashboard\test_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7085EBE-A5DD-4B95-BD69-3613004E43F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9A7310-ABAD-4352-A3DA-E937EAF49842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,16 +399,16 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -427,7 +427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -443,7 +443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -451,7 +451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -459,7 +459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -467,7 +467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -475,7 +475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -483,7 +483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -491,7 +491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -499,7 +499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
